--- a/Documentacao/Matriz.xlsx
+++ b/Documentacao/Matriz.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="211">
   <si>
     <r>
       <rPr>
@@ -314,6 +314,9 @@
     </r>
   </si>
   <si>
+    <t>Tem que se desenvolver</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -335,6 +338,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Trabalhar a historia </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -356,6 +362,9 @@
     </r>
   </si>
   <si>
+    <t>Em desenvolvimento (incluir asset que congela inimigo)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -461,6 +470,9 @@
     </r>
   </si>
   <si>
+    <t>Aleatoriamente aparecer assets nos squares random</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -546,6 +558,9 @@
     </r>
   </si>
   <si>
+    <t>Parte da exploração: fluxograma</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -588,6 +603,9 @@
     </r>
   </si>
   <si>
+    <t>Scene anterior a main: Jogador a andar no mapa e explorar e falar com caracters e arranca o jogo.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -630,6 +648,9 @@
     </r>
   </si>
   <si>
+    <t>Andar mais rapido/congelar</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -736,6 +757,9 @@
     </r>
   </si>
   <si>
+    <t>Tudo relativo a SDD</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -757,6 +781,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Ex: 1ª fase login 2ª fase exploraçao 3ª escolher character 4ª fase board  </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -778,6 +805,9 @@
     </r>
   </si>
   <si>
+    <t>Modelos das personagens em diagramas de casos de estudo</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -799,6 +829,9 @@
     </r>
   </si>
   <si>
+    <t>Diagramas</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -820,6 +853,9 @@
     </r>
   </si>
   <si>
+    <t>Fluxogramas: em progresso</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -841,6 +877,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Parte da exploração, bonecos a falar </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -862,6 +901,9 @@
     </r>
   </si>
   <si>
+    <t>Playstore</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -883,6 +925,9 @@
     </r>
   </si>
   <si>
+    <t>Todo o jogo em si. regras, falar de forma geral do jogo. DESENHO DO VIOREL</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -904,6 +949,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Exemplos: Identificam eventos? Quais as regras? </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -925,6 +973,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Relacionados com o evento </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -946,6 +997,9 @@
     </r>
   </si>
   <si>
+    <t>Retirar listagem dos imports</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -965,6 +1019,12 @@
       </rPr>
       <t>3's Systems</t>
     </r>
+  </si>
+  <si>
+    <t>Por discutir</t>
+  </si>
+  <si>
+    <t>SDD: vale os 25% restantes</t>
   </si>
   <si>
     <r>
@@ -1580,7 +1640,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1621,6 +1681,11 @@
       <sz val="12.0"/>
       <color rgb="FFB7B7B7"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
       <u/>
@@ -1698,7 +1763,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1731,6 +1796,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
         <bgColor rgb="FFFCE5CD"/>
       </patternFill>
@@ -1739,12 +1822,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCFF"/>
         <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -2003,7 +2080,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="96">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
@@ -2109,6 +2186,15 @@
     <xf borderId="12" fillId="4" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
     </xf>
+    <xf borderId="18" fillId="6" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="6" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="18" fillId="5" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
     </xf>
@@ -2118,22 +2204,25 @@
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="12" fillId="7" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2145,94 +2234,97 @@
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="14" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="14" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="15" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="9" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="15" fillId="11" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="10" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="15" fillId="12" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="11" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="15" fillId="13" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="13" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="14" fillId="15" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="13" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="15" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="13" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="15" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="20" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="20" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="22" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="15" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="24" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2241,37 +2333,37 @@
     <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="22" fillId="14" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="22" fillId="16" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="9" fontId="17" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="11" fontId="18" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="10" fontId="17" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="12" fontId="18" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="11" fontId="17" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="13" fontId="18" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="21" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="6" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="9" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2638,7 +2730,7 @@
     <col customWidth="1" min="9" max="11" width="3.43"/>
     <col customWidth="1" min="12" max="12" width="10.14"/>
     <col customWidth="1" min="13" max="14" width="3.43"/>
-    <col customWidth="1" min="15" max="15" width="14.0"/>
+    <col customWidth="1" min="15" max="15" width="99.29"/>
   </cols>
   <sheetData>
     <row r="1" ht="66.0" customHeight="1">
@@ -2683,12 +2775,12 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" ht="24.75" customHeight="1">
+    <row r="4" ht="123.75" customHeight="1">
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="46.5" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -2929,13 +3021,13 @@
       <c r="D16" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="35">
         <v>10.0</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="36">
         <v>12.0</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="36">
         <v>13.0</v>
       </c>
       <c r="H16" s="31"/>
@@ -2945,27 +3037,29 @@
       <c r="L16" s="31"/>
       <c r="M16" s="31"/>
       <c r="N16" s="31"/>
-      <c r="O16" s="1"/>
+      <c r="O16" s="37" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="35">
+        <v>22</v>
+      </c>
+      <c r="E17" s="38">
         <v>10.0</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="39">
         <v>12.0</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="39">
         <v>13.0</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="39">
         <v>14.0</v>
       </c>
       <c r="I17" s="31"/>
@@ -2974,30 +3068,32 @@
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
       <c r="N17" s="31"/>
-      <c r="O17" s="1"/>
+      <c r="O17" s="37" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="35">
+        <v>25</v>
+      </c>
+      <c r="E18" s="30">
         <v>10.0</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="34">
         <v>12.0</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="34">
         <v>13.0</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="34">
         <v>14.0</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="34">
         <v>15.0</v>
       </c>
       <c r="J18" s="31"/>
@@ -3005,33 +3101,35 @@
       <c r="L18" s="31"/>
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
-      <c r="O18" s="1"/>
+      <c r="O18" s="37" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="35">
+        <v>28</v>
+      </c>
+      <c r="E19" s="30">
         <v>10.0</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="34">
         <v>12.0</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="34">
         <v>13.0</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="34">
         <v>14.0</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="34">
         <v>15.0</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="34">
         <v>16.0</v>
       </c>
       <c r="K19" s="31"/>
@@ -3043,31 +3141,31 @@
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="35">
+        <v>30</v>
+      </c>
+      <c r="E20" s="30">
         <v>10.0</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="34">
         <v>12.0</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="34">
         <v>13.0</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="34">
         <v>14.0</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="34">
         <v>15.0</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="34">
         <v>16.0</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="34">
         <v>17.0</v>
       </c>
       <c r="L20" s="31"/>
@@ -3078,34 +3176,34 @@
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="35">
+        <v>32</v>
+      </c>
+      <c r="E21" s="30">
         <v>10.0</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="34">
         <v>12.0</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="34">
         <v>13.0</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="34">
         <v>14.0</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="34">
         <v>15.0</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="34">
         <v>16.0</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="34">
         <v>17.0</v>
       </c>
-      <c r="L21" s="36">
+      <c r="L21" s="34">
         <v>18.0</v>
       </c>
       <c r="M21" s="31"/>
@@ -3115,37 +3213,37 @@
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="35">
+        <v>34</v>
+      </c>
+      <c r="E22" s="30">
         <v>10.0</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="34">
         <v>12.0</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="34">
         <v>13.0</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="34">
         <v>14.0</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="34">
         <v>15.0</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J22" s="34">
         <v>16.0</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="34">
         <v>17.0</v>
       </c>
-      <c r="L22" s="36">
+      <c r="L22" s="34">
         <v>18.0</v>
       </c>
-      <c r="M22" s="36">
+      <c r="M22" s="34">
         <v>18.0</v>
       </c>
       <c r="N22" s="31"/>
@@ -3154,43 +3252,45 @@
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="35">
+        <v>36</v>
+      </c>
+      <c r="E23" s="38">
         <v>10.0</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="39">
         <v>12.0</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="39">
         <v>13.0</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="39">
         <v>14.0</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="39">
         <v>15.0</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J23" s="39">
         <v>16.0</v>
       </c>
-      <c r="K23" s="36">
+      <c r="K23" s="39">
         <v>17.0</v>
       </c>
-      <c r="L23" s="36">
+      <c r="L23" s="39">
         <v>18.0</v>
       </c>
-      <c r="M23" s="36">
+      <c r="M23" s="39">
         <v>18.0</v>
       </c>
-      <c r="N23" s="36">
+      <c r="N23" s="39">
         <v>20.0</v>
       </c>
-      <c r="O23" s="1"/>
+      <c r="O23" s="37" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
@@ -3212,11 +3312,11 @@
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="26" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="27" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -3233,11 +3333,11 @@
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="26" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="37" t="s">
-        <v>37</v>
+      <c r="D26" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="E26" s="34">
         <v>10.0</v>
@@ -3256,11 +3356,11 @@
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="37" t="s">
-        <v>39</v>
+      <c r="D27" s="40" t="s">
+        <v>43</v>
       </c>
       <c r="E27" s="34">
         <v>10.0</v>
@@ -3281,19 +3381,19 @@
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="26" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="34">
+      <c r="D28" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="36">
         <v>10.0</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="36">
         <v>12.0</v>
       </c>
-      <c r="G28" s="34">
+      <c r="G28" s="36">
         <v>13.0</v>
       </c>
       <c r="H28" s="31"/>
@@ -3303,24 +3403,26 @@
       <c r="L28" s="31"/>
       <c r="M28" s="31"/>
       <c r="N28" s="31"/>
-      <c r="O28" s="1"/>
+      <c r="O28" s="37" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="26" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C29" s="11"/>
-      <c r="D29" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="36">
+      <c r="D29" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="34">
         <v>10.0</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="34">
         <v>12.0</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="34">
         <v>13.0</v>
       </c>
       <c r="H29" s="31"/>
@@ -3335,22 +3437,22 @@
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="26" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C30" s="11"/>
-      <c r="D30" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="36">
+      <c r="D30" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="39">
         <v>10.0</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="39">
         <v>12.0</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="39">
         <v>13.0</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30" s="39">
         <v>14.0</v>
       </c>
       <c r="I30" s="31"/>
@@ -3359,30 +3461,32 @@
       <c r="L30" s="31"/>
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
-      <c r="O30" s="1"/>
+      <c r="O30" s="37" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="26" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C31" s="11"/>
-      <c r="D31" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="36">
+      <c r="D31" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="34">
         <v>10.0</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="34">
         <v>12.0</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="34">
         <v>13.0</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31" s="34">
         <v>14.0</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="34">
         <v>15.0</v>
       </c>
       <c r="J31" s="31"/>
@@ -3395,64 +3499,66 @@
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="26" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="34">
+      <c r="D32" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="36">
         <v>10.0</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="36">
         <v>12.0</v>
       </c>
-      <c r="G32" s="34">
+      <c r="G32" s="36">
         <v>13.0</v>
       </c>
-      <c r="H32" s="34">
+      <c r="H32" s="36">
         <v>14.0</v>
       </c>
-      <c r="I32" s="34">
+      <c r="I32" s="36">
         <v>15.0</v>
       </c>
-      <c r="J32" s="34">
+      <c r="J32" s="36">
         <v>16.0</v>
       </c>
       <c r="K32" s="31"/>
       <c r="L32" s="31"/>
       <c r="M32" s="31"/>
       <c r="N32" s="31"/>
-      <c r="O32" s="1"/>
+      <c r="O32" s="37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="26" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C33" s="11"/>
-      <c r="D33" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="36">
+      <c r="D33" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="34">
         <v>10.0</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="34">
         <v>12.0</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="34">
         <v>13.0</v>
       </c>
-      <c r="H33" s="36">
+      <c r="H33" s="34">
         <v>14.0</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="34">
         <v>15.0</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33" s="34">
         <v>16.0</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="34">
         <v>17.0</v>
       </c>
       <c r="L33" s="31"/>
@@ -3463,34 +3569,34 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="26" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C34" s="11"/>
-      <c r="D34" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="36">
+      <c r="D34" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="34">
         <v>10.0</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="34">
         <v>12.0</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="34">
         <v>13.0</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H34" s="34">
         <v>14.0</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="34">
         <v>15.0</v>
       </c>
-      <c r="J34" s="36">
+      <c r="J34" s="34">
         <v>16.0</v>
       </c>
-      <c r="K34" s="36">
+      <c r="K34" s="34">
         <v>17.0</v>
       </c>
-      <c r="L34" s="36">
+      <c r="L34" s="34">
         <v>18.0</v>
       </c>
       <c r="M34" s="31"/>
@@ -3500,37 +3606,37 @@
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="26" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C35" s="11"/>
-      <c r="D35" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="36">
+      <c r="D35" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="34">
         <v>10.0</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35" s="34">
         <v>12.0</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="34">
         <v>13.0</v>
       </c>
-      <c r="H35" s="36">
+      <c r="H35" s="34">
         <v>14.0</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="34">
         <v>15.0</v>
       </c>
-      <c r="J35" s="36">
+      <c r="J35" s="34">
         <v>16.0</v>
       </c>
-      <c r="K35" s="36">
+      <c r="K35" s="34">
         <v>17.0</v>
       </c>
-      <c r="L35" s="36">
+      <c r="L35" s="34">
         <v>18.0</v>
       </c>
-      <c r="M35" s="36">
+      <c r="M35" s="34">
         <v>18.0</v>
       </c>
       <c r="N35" s="31"/>
@@ -3539,40 +3645,40 @@
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="26" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="36">
+      <c r="D36" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="34">
         <v>10.0</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="34">
         <v>12.0</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="34">
         <v>13.0</v>
       </c>
-      <c r="H36" s="36">
+      <c r="H36" s="34">
         <v>14.0</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I36" s="34">
         <v>15.0</v>
       </c>
-      <c r="J36" s="36">
+      <c r="J36" s="34">
         <v>16.0</v>
       </c>
-      <c r="K36" s="36">
+      <c r="K36" s="34">
         <v>17.0</v>
       </c>
-      <c r="L36" s="36">
+      <c r="L36" s="34">
         <v>18.0</v>
       </c>
-      <c r="M36" s="36">
+      <c r="M36" s="34">
         <v>18.0</v>
       </c>
-      <c r="N36" s="36">
+      <c r="N36" s="34">
         <v>20.0</v>
       </c>
       <c r="O36" s="1"/>
@@ -3597,11 +3703,11 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="26" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="27" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -3613,18 +3719,20 @@
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="11"/>
-      <c r="O38" s="1"/>
+      <c r="O38" s="37" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="26" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="36">
+      <c r="D39" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="39">
         <v>10.0</v>
       </c>
       <c r="F39" s="31"/>
@@ -3636,21 +3744,23 @@
       <c r="L39" s="31"/>
       <c r="M39" s="31"/>
       <c r="N39" s="31"/>
-      <c r="O39" s="1"/>
+      <c r="O39" s="37" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="26" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="36">
+      <c r="D40" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="39">
         <v>10.0</v>
       </c>
-      <c r="F40" s="36">
+      <c r="F40" s="39">
         <v>12.0</v>
       </c>
       <c r="G40" s="31"/>
@@ -3661,24 +3771,26 @@
       <c r="L40" s="31"/>
       <c r="M40" s="31"/>
       <c r="N40" s="31"/>
-      <c r="O40" s="1"/>
+      <c r="O40" s="37" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="26" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C41" s="11"/>
-      <c r="D41" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="36">
+      <c r="D41" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="39">
         <v>10.0</v>
       </c>
-      <c r="F41" s="36">
+      <c r="F41" s="39">
         <v>12.0</v>
       </c>
-      <c r="G41" s="36">
+      <c r="G41" s="39">
         <v>13.0</v>
       </c>
       <c r="H41" s="31"/>
@@ -3688,24 +3800,26 @@
       <c r="L41" s="31"/>
       <c r="M41" s="31"/>
       <c r="N41" s="31"/>
-      <c r="O41" s="1"/>
+      <c r="O41" s="37" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="26" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C42" s="11"/>
-      <c r="D42" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="34">
+      <c r="D42" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="41">
         <v>10.0</v>
       </c>
-      <c r="F42" s="34">
+      <c r="F42" s="41">
         <v>12.0</v>
       </c>
-      <c r="G42" s="34">
+      <c r="G42" s="41">
         <v>13.0</v>
       </c>
       <c r="H42" s="31"/>
@@ -3715,27 +3829,29 @@
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
       <c r="N42" s="31"/>
-      <c r="O42" s="1"/>
+      <c r="O42" s="37" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="26" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C43" s="11"/>
-      <c r="D43" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="36">
+      <c r="D43" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="39">
         <v>10.0</v>
       </c>
-      <c r="F43" s="36">
+      <c r="F43" s="39">
         <v>12.0</v>
       </c>
-      <c r="G43" s="36">
+      <c r="G43" s="39">
         <v>13.0</v>
       </c>
-      <c r="H43" s="36">
+      <c r="H43" s="39">
         <v>14.0</v>
       </c>
       <c r="I43" s="31"/>
@@ -3744,30 +3860,32 @@
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
       <c r="N43" s="31"/>
-      <c r="O43" s="1"/>
+      <c r="O43" s="37" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="26" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="36">
+      <c r="D44" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="39">
         <v>10.0</v>
       </c>
-      <c r="F44" s="36">
+      <c r="F44" s="39">
         <v>12.0</v>
       </c>
-      <c r="G44" s="36">
+      <c r="G44" s="39">
         <v>13.0</v>
       </c>
-      <c r="H44" s="36">
+      <c r="H44" s="39">
         <v>14.0</v>
       </c>
-      <c r="I44" s="36">
+      <c r="I44" s="39">
         <v>15.0</v>
       </c>
       <c r="J44" s="31"/>
@@ -3775,192 +3893,204 @@
       <c r="L44" s="31"/>
       <c r="M44" s="31"/>
       <c r="N44" s="31"/>
-      <c r="O44" s="1"/>
+      <c r="O44" s="42" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="26" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C45" s="11"/>
-      <c r="D45" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="E45" s="36">
+      <c r="D45" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="39">
         <v>10.0</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45" s="39">
         <v>12.0</v>
       </c>
-      <c r="G45" s="36">
+      <c r="G45" s="39">
         <v>13.0</v>
       </c>
-      <c r="H45" s="36">
+      <c r="H45" s="39">
         <v>14.0</v>
       </c>
-      <c r="I45" s="36">
+      <c r="I45" s="39">
         <v>15.0</v>
       </c>
-      <c r="J45" s="36">
+      <c r="J45" s="39">
         <v>16.0</v>
       </c>
       <c r="K45" s="31"/>
       <c r="L45" s="31"/>
       <c r="M45" s="31"/>
       <c r="N45" s="31"/>
-      <c r="O45" s="1"/>
+      <c r="O45" s="37" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="26" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="E46" s="36">
+      <c r="D46" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="39">
         <v>10.0</v>
       </c>
-      <c r="F46" s="36">
+      <c r="F46" s="39">
         <v>12.0</v>
       </c>
-      <c r="G46" s="36">
+      <c r="G46" s="39">
         <v>13.0</v>
       </c>
-      <c r="H46" s="36">
+      <c r="H46" s="39">
         <v>14.0</v>
       </c>
-      <c r="I46" s="36">
+      <c r="I46" s="39">
         <v>15.0</v>
       </c>
-      <c r="J46" s="36">
+      <c r="J46" s="39">
         <v>16.0</v>
       </c>
-      <c r="K46" s="36">
+      <c r="K46" s="39">
         <v>17.0</v>
       </c>
       <c r="L46" s="31"/>
       <c r="M46" s="31"/>
       <c r="N46" s="31"/>
-      <c r="O46" s="1"/>
+      <c r="O46" s="37" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="26" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C47" s="11"/>
-      <c r="D47" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="36">
+      <c r="D47" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="39">
         <v>10.0</v>
       </c>
-      <c r="F47" s="36">
+      <c r="F47" s="39">
         <v>12.0</v>
       </c>
-      <c r="G47" s="36">
+      <c r="G47" s="39">
         <v>13.0</v>
       </c>
-      <c r="H47" s="36">
+      <c r="H47" s="39">
         <v>14.0</v>
       </c>
-      <c r="I47" s="36">
+      <c r="I47" s="39">
         <v>15.0</v>
       </c>
-      <c r="J47" s="36">
+      <c r="J47" s="39">
         <v>16.0</v>
       </c>
-      <c r="K47" s="36">
+      <c r="K47" s="39">
         <v>17.0</v>
       </c>
-      <c r="L47" s="36">
+      <c r="L47" s="39">
         <v>18.0</v>
       </c>
       <c r="M47" s="31"/>
       <c r="N47" s="31"/>
-      <c r="O47" s="1"/>
+      <c r="O47" s="37" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="26" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="E48" s="36">
+      <c r="D48" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="34">
         <v>10.0</v>
       </c>
-      <c r="F48" s="36">
+      <c r="F48" s="34">
         <v>12.0</v>
       </c>
-      <c r="G48" s="36">
+      <c r="G48" s="34">
         <v>13.0</v>
       </c>
-      <c r="H48" s="36">
+      <c r="H48" s="34">
         <v>14.0</v>
       </c>
-      <c r="I48" s="36">
+      <c r="I48" s="34">
         <v>15.0</v>
       </c>
-      <c r="J48" s="36">
+      <c r="J48" s="34">
         <v>16.0</v>
       </c>
-      <c r="K48" s="36">
+      <c r="K48" s="34">
         <v>17.0</v>
       </c>
-      <c r="L48" s="36">
+      <c r="L48" s="34">
         <v>18.0</v>
       </c>
-      <c r="M48" s="36">
+      <c r="M48" s="34">
         <v>18.0</v>
       </c>
       <c r="N48" s="31"/>
-      <c r="O48" s="1"/>
+      <c r="O48" s="37" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="26" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C49" s="11"/>
-      <c r="D49" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="36">
+      <c r="D49" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="39">
         <v>10.0</v>
       </c>
-      <c r="F49" s="36">
+      <c r="F49" s="39">
         <v>12.0</v>
       </c>
-      <c r="G49" s="36">
+      <c r="G49" s="39">
         <v>13.0</v>
       </c>
-      <c r="H49" s="36">
+      <c r="H49" s="39">
         <v>14.0</v>
       </c>
-      <c r="I49" s="36">
+      <c r="I49" s="39">
         <v>15.0</v>
       </c>
-      <c r="J49" s="36">
+      <c r="J49" s="39">
         <v>16.0</v>
       </c>
-      <c r="K49" s="36">
+      <c r="K49" s="39">
         <v>17.0</v>
       </c>
-      <c r="L49" s="36">
+      <c r="L49" s="39">
         <v>18.0</v>
       </c>
-      <c r="M49" s="36">
+      <c r="M49" s="39">
         <v>18.0</v>
       </c>
-      <c r="N49" s="36">
+      <c r="N49" s="39">
         <v>20.0</v>
       </c>
-      <c r="O49" s="1"/>
+      <c r="O49" s="37" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
@@ -3994,16 +4124,18 @@
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
       <c r="N51" s="11"/>
-      <c r="O51" s="1"/>
+      <c r="O51" s="37" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="38" t="s">
-        <v>82</v>
+      <c r="A52" s="43" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="53" ht="401.25" customHeight="1">
-      <c r="A53" s="39" t="s">
-        <v>83</v>
+      <c r="A53" s="44" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1"/>
@@ -5031,379 +5163,379 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
     </row>
     <row r="2">
-      <c r="A2" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
+      <c r="A2" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
     </row>
     <row r="3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
     </row>
     <row r="4">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
     </row>
     <row r="5">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
     </row>
     <row r="6">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
     </row>
     <row r="7">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
     </row>
     <row r="8">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="45" t="s">
-        <v>87</v>
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="50" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="40"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
     </row>
     <row r="10">
-      <c r="A10" s="40"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
     </row>
     <row r="11">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49" t="s">
-        <v>89</v>
+      <c r="A11" s="53"/>
+      <c r="B11" s="54" t="s">
+        <v>109</v>
       </c>
       <c r="N11" s="17"/>
-      <c r="O11" s="50"/>
+      <c r="O11" s="55"/>
       <c r="Y11" s="17"/>
-      <c r="Z11" s="51" t="s">
-        <v>90</v>
+      <c r="Z11" s="56" t="s">
+        <v>110</v>
       </c>
       <c r="AA11" s="23"/>
       <c r="AB11" s="24"/>
     </row>
     <row r="12">
-      <c r="A12" s="48"/>
+      <c r="A12" s="53"/>
       <c r="N12" s="17"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="51" t="s">
-        <v>91</v>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="56" t="s">
+        <v>111</v>
       </c>
       <c r="AA12" s="24"/>
-      <c r="AB12" s="54" t="s">
-        <v>92</v>
+      <c r="AB12" s="59" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="48"/>
+      <c r="A13" s="53"/>
       <c r="N13" s="17"/>
-      <c r="O13" s="55" t="s">
-        <v>93</v>
+      <c r="O13" s="60" t="s">
+        <v>113</v>
       </c>
       <c r="AB13" s="17"/>
     </row>
     <row r="14">
-      <c r="A14" s="48"/>
+      <c r="A14" s="53"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="56" t="s">
-        <v>94</v>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="61" t="s">
+        <v>114</v>
       </c>
       <c r="AA14" s="24"/>
-      <c r="AB14" s="57" t="s">
-        <v>95</v>
+      <c r="AB14" s="62" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="48"/>
+      <c r="A15" s="53"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
@@ -5416,16 +5548,16 @@
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
       <c r="Y15" s="17"/>
-      <c r="Z15" s="56" t="s">
-        <v>96</v>
+      <c r="Z15" s="61" t="s">
+        <v>116</v>
       </c>
       <c r="AA15" s="24"/>
-      <c r="AB15" s="57" t="s">
-        <v>97</v>
+      <c r="AB15" s="62" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="48"/>
+      <c r="A16" s="53"/>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
@@ -5438,16 +5570,16 @@
       <c r="W16" s="17"/>
       <c r="X16" s="17"/>
       <c r="Y16" s="17"/>
-      <c r="Z16" s="56" t="s">
-        <v>98</v>
+      <c r="Z16" s="61" t="s">
+        <v>118</v>
       </c>
       <c r="AA16" s="24"/>
-      <c r="AB16" s="58" t="s">
-        <v>99</v>
+      <c r="AB16" s="63" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="48"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -5472,86 +5604,86 @@
       <c r="W17" s="24"/>
       <c r="X17" s="24"/>
       <c r="Y17" s="24"/>
-      <c r="Z17" s="56" t="s">
-        <v>100</v>
+      <c r="Z17" s="61" t="s">
+        <v>120</v>
       </c>
       <c r="AA17" s="24"/>
-      <c r="AB17" s="59" t="s">
-        <v>101</v>
+      <c r="AB17" s="64" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="46"/>
     </row>
     <row r="19">
-      <c r="A19" s="40"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
     </row>
     <row r="20">
-      <c r="A20" s="48"/>
-      <c r="B20" s="66" t="s">
-        <v>105</v>
+      <c r="A20" s="53"/>
+      <c r="B20" s="71" t="s">
+        <v>125</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -5581,508 +5713,508 @@
       <c r="AB20" s="24"/>
     </row>
     <row r="21">
-      <c r="A21" s="48"/>
-      <c r="B21" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="72"/>
-      <c r="AA21" s="73"/>
-      <c r="AB21" s="74"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="73"/>
+      <c r="D21" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="76"/>
+      <c r="U21" s="76"/>
+      <c r="V21" s="76"/>
+      <c r="W21" s="76"/>
+      <c r="X21" s="76"/>
+      <c r="Y21" s="76"/>
+      <c r="Z21" s="77"/>
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="79"/>
     </row>
     <row r="22">
-      <c r="A22" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="77"/>
-      <c r="F22" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="80"/>
-      <c r="U22" s="80"/>
-      <c r="V22" s="80"/>
-      <c r="W22" s="80"/>
-      <c r="X22" s="80"/>
-      <c r="Y22" s="80"/>
-      <c r="Z22" s="81">
+      <c r="A22" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="82"/>
+      <c r="F22" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="85"/>
+      <c r="U22" s="85"/>
+      <c r="V22" s="85"/>
+      <c r="W22" s="85"/>
+      <c r="X22" s="85"/>
+      <c r="Y22" s="85"/>
+      <c r="Z22" s="86">
         <v>10.0</v>
       </c>
-      <c r="AA22" s="73"/>
-      <c r="AB22" s="57" t="s">
-        <v>97</v>
+      <c r="AA22" s="78"/>
+      <c r="AB22" s="62" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="77"/>
-      <c r="F23" s="78" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="80"/>
-      <c r="T23" s="80"/>
-      <c r="U23" s="80"/>
-      <c r="V23" s="80"/>
-      <c r="W23" s="80"/>
-      <c r="X23" s="80"/>
-      <c r="Y23" s="80"/>
-      <c r="Z23" s="81">
+      <c r="A23" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="82"/>
+      <c r="D23" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="85"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="85"/>
+      <c r="W23" s="85"/>
+      <c r="X23" s="85"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="86">
         <v>12.0</v>
       </c>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="57" t="s">
-        <v>97</v>
+      <c r="AA23" s="78"/>
+      <c r="AB23" s="62" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="80"/>
-      <c r="S24" s="80"/>
-      <c r="T24" s="80"/>
-      <c r="U24" s="80"/>
-      <c r="V24" s="80"/>
-      <c r="W24" s="80"/>
-      <c r="X24" s="80"/>
-      <c r="Y24" s="80"/>
-      <c r="Z24" s="81">
+      <c r="A24" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="85"/>
+      <c r="U24" s="85"/>
+      <c r="V24" s="85"/>
+      <c r="W24" s="85"/>
+      <c r="X24" s="85"/>
+      <c r="Y24" s="85"/>
+      <c r="Z24" s="86">
         <v>13.0</v>
       </c>
-      <c r="AA24" s="73"/>
-      <c r="AB24" s="57" t="s">
-        <v>97</v>
+      <c r="AA24" s="78"/>
+      <c r="AB24" s="62" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="76" t="s">
+      <c r="A25" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="82"/>
+      <c r="F25" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="85"/>
+      <c r="U25" s="85"/>
+      <c r="V25" s="85"/>
+      <c r="W25" s="85"/>
+      <c r="X25" s="85"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="86">
+        <v>13.0</v>
+      </c>
+      <c r="AA25" s="78"/>
+      <c r="AB25" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="77"/>
-      <c r="F25" s="78" t="s">
+    </row>
+    <row r="26">
+      <c r="A26" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="82"/>
+      <c r="D26" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="82"/>
+      <c r="F26" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="84"/>
+      <c r="T26" s="85"/>
+      <c r="U26" s="85"/>
+      <c r="V26" s="85"/>
+      <c r="W26" s="85"/>
+      <c r="X26" s="85"/>
+      <c r="Y26" s="85"/>
+      <c r="Z26" s="87">
+        <v>14.0</v>
+      </c>
+      <c r="AA26" s="78"/>
+      <c r="AB26" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="79"/>
-      <c r="S25" s="80"/>
-      <c r="T25" s="80"/>
-      <c r="U25" s="80"/>
-      <c r="V25" s="80"/>
-      <c r="W25" s="80"/>
-      <c r="X25" s="80"/>
-      <c r="Y25" s="80"/>
-      <c r="Z25" s="81">
-        <v>13.0</v>
-      </c>
-      <c r="AA25" s="73"/>
-      <c r="AB25" s="57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="78" t="s">
+    </row>
+    <row r="27">
+      <c r="A27" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="82"/>
+      <c r="F27" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
+      <c r="R27" s="84"/>
+      <c r="S27" s="84"/>
+      <c r="T27" s="84"/>
+      <c r="U27" s="85"/>
+      <c r="V27" s="85"/>
+      <c r="W27" s="85"/>
+      <c r="X27" s="85"/>
+      <c r="Y27" s="85"/>
+      <c r="Z27" s="87">
+        <v>15.0</v>
+      </c>
+      <c r="AA27" s="78"/>
+      <c r="AB27" s="63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="82"/>
+      <c r="D28" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="82"/>
+      <c r="F28" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="84"/>
+      <c r="T28" s="84"/>
+      <c r="U28" s="84"/>
+      <c r="V28" s="85"/>
+      <c r="W28" s="85"/>
+      <c r="X28" s="85"/>
+      <c r="Y28" s="85"/>
+      <c r="Z28" s="87">
+        <v>16.0</v>
+      </c>
+      <c r="AA28" s="78"/>
+      <c r="AB28" s="63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="82"/>
+      <c r="D29" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="82"/>
+      <c r="F29" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="84"/>
+      <c r="W29" s="85"/>
+      <c r="X29" s="85"/>
+      <c r="Y29" s="85"/>
+      <c r="Z29" s="87">
+        <v>17.0</v>
+      </c>
+      <c r="AA29" s="78"/>
+      <c r="AB29" s="63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="82"/>
+      <c r="D30" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="82"/>
+      <c r="F30" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="84"/>
+      <c r="T30" s="84"/>
+      <c r="U30" s="84"/>
+      <c r="V30" s="84"/>
+      <c r="W30" s="84"/>
+      <c r="X30" s="85"/>
+      <c r="Y30" s="85"/>
+      <c r="Z30" s="89">
+        <v>18.0</v>
+      </c>
+      <c r="AA30" s="78"/>
+      <c r="AB30" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="78" t="s">
+    </row>
+    <row r="31">
+      <c r="A31" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="79"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="80"/>
-      <c r="V26" s="80"/>
-      <c r="W26" s="80"/>
-      <c r="X26" s="80"/>
-      <c r="Y26" s="80"/>
-      <c r="Z26" s="82">
-        <v>14.0</v>
-      </c>
-      <c r="AA26" s="73"/>
-      <c r="AB26" s="58" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="76" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="78" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="80"/>
-      <c r="V27" s="80"/>
-      <c r="W27" s="80"/>
-      <c r="X27" s="80"/>
-      <c r="Y27" s="80"/>
-      <c r="Z27" s="82">
-        <v>15.0</v>
-      </c>
-      <c r="AA27" s="73"/>
-      <c r="AB27" s="58" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="76" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="79"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="79"/>
-      <c r="U28" s="79"/>
-      <c r="V28" s="80"/>
-      <c r="W28" s="80"/>
-      <c r="X28" s="80"/>
-      <c r="Y28" s="80"/>
-      <c r="Z28" s="82">
-        <v>16.0</v>
-      </c>
-      <c r="AA28" s="73"/>
-      <c r="AB28" s="58" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="77"/>
-      <c r="D29" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="77"/>
-      <c r="F29" s="78" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="79"/>
-      <c r="R29" s="79"/>
-      <c r="S29" s="79"/>
-      <c r="T29" s="79"/>
-      <c r="U29" s="79"/>
-      <c r="V29" s="79"/>
-      <c r="W29" s="80"/>
-      <c r="X29" s="80"/>
-      <c r="Y29" s="80"/>
-      <c r="Z29" s="82">
-        <v>17.0</v>
-      </c>
-      <c r="AA29" s="73"/>
-      <c r="AB29" s="58" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="76" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="77"/>
-      <c r="F30" s="83" t="s">
-        <v>135</v>
-      </c>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79"/>
-      <c r="S30" s="79"/>
-      <c r="T30" s="79"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="79"/>
-      <c r="W30" s="79"/>
-      <c r="X30" s="80"/>
-      <c r="Y30" s="80"/>
-      <c r="Z30" s="84">
-        <v>18.0</v>
-      </c>
-      <c r="AA30" s="73"/>
-      <c r="AB30" s="59" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="78" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="77"/>
-      <c r="F31" s="78" t="s">
-        <v>138</v>
-      </c>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="79"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="79"/>
-      <c r="S31" s="79"/>
-      <c r="T31" s="79"/>
-      <c r="U31" s="79"/>
-      <c r="V31" s="79"/>
-      <c r="W31" s="79"/>
-      <c r="X31" s="79"/>
-      <c r="Y31" s="80"/>
-      <c r="Z31" s="84">
+      <c r="B31" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="82"/>
+      <c r="D31" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="82"/>
+      <c r="F31" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="84"/>
+      <c r="T31" s="84"/>
+      <c r="U31" s="84"/>
+      <c r="V31" s="84"/>
+      <c r="W31" s="84"/>
+      <c r="X31" s="84"/>
+      <c r="Y31" s="85"/>
+      <c r="Z31" s="89">
         <v>19.0</v>
       </c>
-      <c r="AA31" s="73"/>
-      <c r="AB31" s="59" t="s">
-        <v>101</v>
+      <c r="AA31" s="78"/>
+      <c r="AB31" s="64" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="78" t="s">
-        <v>140</v>
-      </c>
-      <c r="E32" s="77"/>
-      <c r="F32" s="78" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="79"/>
-      <c r="Q32" s="79"/>
-      <c r="R32" s="79"/>
-      <c r="S32" s="79"/>
-      <c r="T32" s="79"/>
-      <c r="U32" s="79"/>
-      <c r="V32" s="79"/>
-      <c r="W32" s="79"/>
-      <c r="X32" s="79"/>
-      <c r="Y32" s="79"/>
-      <c r="Z32" s="84">
+      <c r="A32" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="82"/>
+      <c r="F32" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="84"/>
+      <c r="T32" s="84"/>
+      <c r="U32" s="84"/>
+      <c r="V32" s="84"/>
+      <c r="W32" s="84"/>
+      <c r="X32" s="84"/>
+      <c r="Y32" s="84"/>
+      <c r="Z32" s="89">
         <v>20.0</v>
       </c>
-      <c r="AA32" s="73"/>
-      <c r="AB32" s="59" t="s">
-        <v>101</v>
+      <c r="AA32" s="78"/>
+      <c r="AB32" s="64" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="48"/>
-      <c r="B33" s="72"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="77"/>
       <c r="C33" s="24"/>
-      <c r="D33" s="72"/>
+      <c r="D33" s="77"/>
       <c r="E33" s="24"/>
-      <c r="F33" s="72"/>
+      <c r="F33" s="77"/>
       <c r="G33" s="23"/>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
@@ -6091,61 +6223,61 @@
       <c r="L33" s="23"/>
       <c r="M33" s="23"/>
       <c r="N33" s="24"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="85"/>
-      <c r="R33" s="85"/>
-      <c r="S33" s="85"/>
-      <c r="T33" s="85"/>
-      <c r="U33" s="85"/>
-      <c r="V33" s="85"/>
-      <c r="W33" s="85"/>
-      <c r="X33" s="85"/>
-      <c r="Y33" s="85"/>
-      <c r="Z33" s="72"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="90"/>
+      <c r="Q33" s="90"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="90"/>
+      <c r="W33" s="90"/>
+      <c r="X33" s="90"/>
+      <c r="Y33" s="90"/>
+      <c r="Z33" s="77"/>
       <c r="AA33" s="24"/>
-      <c r="AB33" s="85"/>
+      <c r="AB33" s="90"/>
     </row>
     <row r="34">
-      <c r="A34" s="48"/>
-      <c r="B34" s="51" t="s">
-        <v>142</v>
+      <c r="A34" s="53"/>
+      <c r="B34" s="56" t="s">
+        <v>162</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="69" t="s">
+      <c r="D34" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="91"/>
+      <c r="S34" s="91"/>
+      <c r="T34" s="91"/>
+      <c r="U34" s="91"/>
+      <c r="V34" s="91"/>
+      <c r="W34" s="91"/>
+      <c r="X34" s="91"/>
+      <c r="Y34" s="91"/>
+      <c r="Z34" s="77"/>
+      <c r="AA34" s="24"/>
+      <c r="AB34" s="79"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="86"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="86"/>
-      <c r="R34" s="86"/>
-      <c r="S34" s="86"/>
-      <c r="T34" s="86"/>
-      <c r="U34" s="86"/>
-      <c r="V34" s="86"/>
-      <c r="W34" s="86"/>
-      <c r="X34" s="86"/>
-      <c r="Y34" s="86"/>
-      <c r="Z34" s="72"/>
-      <c r="AA34" s="24"/>
-      <c r="AB34" s="74"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="B35" s="87" t="s">
-        <v>144</v>
+      <c r="B35" s="92" t="s">
+        <v>164</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
@@ -6159,71 +6291,71 @@
       <c r="L35" s="23"/>
       <c r="M35" s="23"/>
       <c r="N35" s="24"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="80"/>
-      <c r="Q35" s="80"/>
-      <c r="R35" s="80"/>
-      <c r="S35" s="80"/>
-      <c r="T35" s="80"/>
-      <c r="U35" s="80"/>
-      <c r="V35" s="80"/>
-      <c r="W35" s="80"/>
-      <c r="X35" s="80"/>
-      <c r="Y35" s="80"/>
-      <c r="Z35" s="81">
+      <c r="O35" s="84"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
+      <c r="U35" s="85"/>
+      <c r="V35" s="85"/>
+      <c r="W35" s="85"/>
+      <c r="X35" s="85"/>
+      <c r="Y35" s="85"/>
+      <c r="Z35" s="86">
         <v>10.0</v>
       </c>
-      <c r="AA35" s="73"/>
-      <c r="AB35" s="57" t="s">
-        <v>97</v>
+      <c r="AA35" s="78"/>
+      <c r="AB35" s="62" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="89" t="s">
-        <v>145</v>
+      <c r="A36" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="94" t="s">
+        <v>165</v>
       </c>
       <c r="C36" s="24"/>
-      <c r="D36" s="78" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="70"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="80"/>
-      <c r="R36" s="80"/>
-      <c r="S36" s="80"/>
-      <c r="T36" s="80"/>
-      <c r="U36" s="80"/>
-      <c r="V36" s="80"/>
-      <c r="W36" s="80"/>
-      <c r="X36" s="80"/>
-      <c r="Y36" s="80"/>
-      <c r="Z36" s="81">
+      <c r="D36" s="83" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="85"/>
+      <c r="R36" s="85"/>
+      <c r="S36" s="85"/>
+      <c r="T36" s="85"/>
+      <c r="U36" s="85"/>
+      <c r="V36" s="85"/>
+      <c r="W36" s="85"/>
+      <c r="X36" s="85"/>
+      <c r="Y36" s="85"/>
+      <c r="Z36" s="86">
         <v>12.0</v>
       </c>
-      <c r="AA36" s="73"/>
-      <c r="AB36" s="57" t="s">
-        <v>97</v>
+      <c r="AA36" s="78"/>
+      <c r="AB36" s="62" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="87" t="s">
-        <v>147</v>
+      <c r="A37" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="92" t="s">
+        <v>167</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
@@ -6237,71 +6369,71 @@
       <c r="L37" s="23"/>
       <c r="M37" s="23"/>
       <c r="N37" s="24"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="80"/>
-      <c r="S37" s="80"/>
-      <c r="T37" s="80"/>
-      <c r="U37" s="80"/>
-      <c r="V37" s="80"/>
-      <c r="W37" s="80"/>
-      <c r="X37" s="80"/>
-      <c r="Y37" s="80"/>
-      <c r="Z37" s="81">
+      <c r="O37" s="84"/>
+      <c r="P37" s="84"/>
+      <c r="Q37" s="84"/>
+      <c r="R37" s="85"/>
+      <c r="S37" s="85"/>
+      <c r="T37" s="85"/>
+      <c r="U37" s="85"/>
+      <c r="V37" s="85"/>
+      <c r="W37" s="85"/>
+      <c r="X37" s="85"/>
+      <c r="Y37" s="85"/>
+      <c r="Z37" s="86">
         <v>13.0</v>
       </c>
-      <c r="AA37" s="73"/>
-      <c r="AB37" s="57" t="s">
-        <v>97</v>
+      <c r="AA37" s="78"/>
+      <c r="AB37" s="62" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38" s="89" t="s">
-        <v>148</v>
+      <c r="A38" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="94" t="s">
+        <v>168</v>
       </c>
       <c r="C38" s="24"/>
-      <c r="D38" s="78" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="70"/>
-      <c r="N38" s="70"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="80"/>
-      <c r="T38" s="80"/>
-      <c r="U38" s="80"/>
-      <c r="V38" s="80"/>
-      <c r="W38" s="80"/>
-      <c r="X38" s="80"/>
-      <c r="Y38" s="80"/>
-      <c r="Z38" s="81">
+      <c r="D38" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="84"/>
+      <c r="P38" s="84"/>
+      <c r="Q38" s="84"/>
+      <c r="R38" s="84"/>
+      <c r="S38" s="85"/>
+      <c r="T38" s="85"/>
+      <c r="U38" s="85"/>
+      <c r="V38" s="85"/>
+      <c r="W38" s="85"/>
+      <c r="X38" s="85"/>
+      <c r="Y38" s="85"/>
+      <c r="Z38" s="86">
         <v>13.0</v>
       </c>
-      <c r="AA38" s="73"/>
-      <c r="AB38" s="57" t="s">
-        <v>97</v>
+      <c r="AA38" s="78"/>
+      <c r="AB38" s="62" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="87" t="s">
-        <v>150</v>
+      <c r="A39" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="92" t="s">
+        <v>170</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
@@ -6315,71 +6447,71 @@
       <c r="L39" s="23"/>
       <c r="M39" s="23"/>
       <c r="N39" s="24"/>
-      <c r="O39" s="79"/>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="79"/>
-      <c r="S39" s="79"/>
-      <c r="T39" s="80"/>
-      <c r="U39" s="80"/>
-      <c r="V39" s="80"/>
-      <c r="W39" s="80"/>
-      <c r="X39" s="80"/>
-      <c r="Y39" s="80"/>
-      <c r="Z39" s="82">
+      <c r="O39" s="84"/>
+      <c r="P39" s="84"/>
+      <c r="Q39" s="84"/>
+      <c r="R39" s="84"/>
+      <c r="S39" s="84"/>
+      <c r="T39" s="85"/>
+      <c r="U39" s="85"/>
+      <c r="V39" s="85"/>
+      <c r="W39" s="85"/>
+      <c r="X39" s="85"/>
+      <c r="Y39" s="85"/>
+      <c r="Z39" s="87">
         <v>14.0</v>
       </c>
-      <c r="AA39" s="73"/>
-      <c r="AB39" s="58" t="s">
-        <v>99</v>
+      <c r="AA39" s="78"/>
+      <c r="AB39" s="63" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="89" t="s">
-        <v>151</v>
+      <c r="A40" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="94" t="s">
+        <v>171</v>
       </c>
       <c r="C40" s="24"/>
-      <c r="D40" s="78" t="s">
-        <v>152</v>
-      </c>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="70"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="79"/>
-      <c r="Q40" s="79"/>
-      <c r="R40" s="79"/>
-      <c r="S40" s="79"/>
-      <c r="T40" s="79"/>
-      <c r="U40" s="80"/>
-      <c r="V40" s="80"/>
-      <c r="W40" s="80"/>
-      <c r="X40" s="80"/>
-      <c r="Y40" s="80"/>
-      <c r="Z40" s="82">
+      <c r="D40" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="84"/>
+      <c r="P40" s="84"/>
+      <c r="Q40" s="84"/>
+      <c r="R40" s="84"/>
+      <c r="S40" s="84"/>
+      <c r="T40" s="84"/>
+      <c r="U40" s="85"/>
+      <c r="V40" s="85"/>
+      <c r="W40" s="85"/>
+      <c r="X40" s="85"/>
+      <c r="Y40" s="85"/>
+      <c r="Z40" s="87">
         <v>15.0</v>
       </c>
-      <c r="AA40" s="73"/>
-      <c r="AB40" s="58" t="s">
-        <v>99</v>
+      <c r="AA40" s="78"/>
+      <c r="AB40" s="63" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="87" t="s">
-        <v>153</v>
+      <c r="A41" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="92" t="s">
+        <v>173</v>
       </c>
       <c r="C41" s="23"/>
       <c r="D41" s="23"/>
@@ -6393,71 +6525,71 @@
       <c r="L41" s="23"/>
       <c r="M41" s="23"/>
       <c r="N41" s="24"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
-      <c r="Q41" s="79"/>
-      <c r="R41" s="79"/>
-      <c r="S41" s="79"/>
-      <c r="T41" s="79"/>
-      <c r="U41" s="79"/>
-      <c r="V41" s="80"/>
-      <c r="W41" s="80"/>
-      <c r="X41" s="80"/>
-      <c r="Y41" s="80"/>
-      <c r="Z41" s="82">
+      <c r="O41" s="84"/>
+      <c r="P41" s="84"/>
+      <c r="Q41" s="84"/>
+      <c r="R41" s="84"/>
+      <c r="S41" s="84"/>
+      <c r="T41" s="84"/>
+      <c r="U41" s="84"/>
+      <c r="V41" s="85"/>
+      <c r="W41" s="85"/>
+      <c r="X41" s="85"/>
+      <c r="Y41" s="85"/>
+      <c r="Z41" s="87">
         <v>16.0</v>
       </c>
-      <c r="AA41" s="73"/>
-      <c r="AB41" s="58" t="s">
-        <v>99</v>
+      <c r="AA41" s="78"/>
+      <c r="AB41" s="63" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="89" t="s">
-        <v>154</v>
+      <c r="A42" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="94" t="s">
+        <v>174</v>
       </c>
       <c r="C42" s="24"/>
-      <c r="D42" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="70"/>
-      <c r="N42" s="70"/>
-      <c r="O42" s="79"/>
-      <c r="P42" s="79"/>
-      <c r="Q42" s="79"/>
-      <c r="R42" s="79"/>
-      <c r="S42" s="79"/>
-      <c r="T42" s="79"/>
-      <c r="U42" s="79"/>
-      <c r="V42" s="79"/>
-      <c r="W42" s="80"/>
-      <c r="X42" s="80"/>
-      <c r="Y42" s="80"/>
-      <c r="Z42" s="82">
+      <c r="D42" s="83" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="84"/>
+      <c r="P42" s="84"/>
+      <c r="Q42" s="84"/>
+      <c r="R42" s="84"/>
+      <c r="S42" s="84"/>
+      <c r="T42" s="84"/>
+      <c r="U42" s="84"/>
+      <c r="V42" s="84"/>
+      <c r="W42" s="85"/>
+      <c r="X42" s="85"/>
+      <c r="Y42" s="85"/>
+      <c r="Z42" s="87">
         <v>17.0</v>
       </c>
-      <c r="AA42" s="73"/>
-      <c r="AB42" s="58" t="s">
-        <v>99</v>
+      <c r="AA42" s="78"/>
+      <c r="AB42" s="63" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43" s="87" t="s">
-        <v>156</v>
+      <c r="A43" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="92" t="s">
+        <v>176</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
@@ -6471,71 +6603,71 @@
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
       <c r="N43" s="24"/>
-      <c r="O43" s="79"/>
-      <c r="P43" s="79"/>
-      <c r="Q43" s="79"/>
-      <c r="R43" s="79"/>
-      <c r="S43" s="79"/>
-      <c r="T43" s="79"/>
-      <c r="U43" s="79"/>
-      <c r="V43" s="79"/>
-      <c r="W43" s="79"/>
-      <c r="X43" s="80"/>
-      <c r="Y43" s="80"/>
-      <c r="Z43" s="84">
+      <c r="O43" s="84"/>
+      <c r="P43" s="84"/>
+      <c r="Q43" s="84"/>
+      <c r="R43" s="84"/>
+      <c r="S43" s="84"/>
+      <c r="T43" s="84"/>
+      <c r="U43" s="84"/>
+      <c r="V43" s="84"/>
+      <c r="W43" s="84"/>
+      <c r="X43" s="85"/>
+      <c r="Y43" s="85"/>
+      <c r="Z43" s="89">
         <v>18.0</v>
       </c>
-      <c r="AA43" s="73"/>
-      <c r="AB43" s="59" t="s">
-        <v>101</v>
+      <c r="AA43" s="78"/>
+      <c r="AB43" s="64" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="89" t="s">
-        <v>157</v>
+      <c r="A44" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="94" t="s">
+        <v>177</v>
       </c>
       <c r="C44" s="24"/>
-      <c r="D44" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="70"/>
-      <c r="M44" s="70"/>
-      <c r="N44" s="70"/>
-      <c r="O44" s="79"/>
-      <c r="P44" s="79"/>
-      <c r="Q44" s="79"/>
-      <c r="R44" s="79"/>
-      <c r="S44" s="79"/>
-      <c r="T44" s="79"/>
-      <c r="U44" s="79"/>
-      <c r="V44" s="79"/>
-      <c r="W44" s="79"/>
-      <c r="X44" s="79"/>
-      <c r="Y44" s="80"/>
-      <c r="Z44" s="84">
+      <c r="D44" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="75"/>
+      <c r="O44" s="84"/>
+      <c r="P44" s="84"/>
+      <c r="Q44" s="84"/>
+      <c r="R44" s="84"/>
+      <c r="S44" s="84"/>
+      <c r="T44" s="84"/>
+      <c r="U44" s="84"/>
+      <c r="V44" s="84"/>
+      <c r="W44" s="84"/>
+      <c r="X44" s="84"/>
+      <c r="Y44" s="85"/>
+      <c r="Z44" s="89">
         <v>19.0</v>
       </c>
-      <c r="AA44" s="73"/>
-      <c r="AB44" s="59" t="s">
-        <v>101</v>
+      <c r="AA44" s="78"/>
+      <c r="AB44" s="64" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" s="87" t="s">
-        <v>159</v>
+      <c r="A45" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="92" t="s">
+        <v>179</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
@@ -6549,32 +6681,32 @@
       <c r="L45" s="23"/>
       <c r="M45" s="23"/>
       <c r="N45" s="24"/>
-      <c r="O45" s="79"/>
-      <c r="P45" s="79"/>
-      <c r="Q45" s="79"/>
-      <c r="R45" s="79"/>
-      <c r="S45" s="79"/>
-      <c r="T45" s="79"/>
-      <c r="U45" s="79"/>
-      <c r="V45" s="79"/>
-      <c r="W45" s="79"/>
-      <c r="X45" s="79"/>
-      <c r="Y45" s="79"/>
-      <c r="Z45" s="84">
+      <c r="O45" s="84"/>
+      <c r="P45" s="84"/>
+      <c r="Q45" s="84"/>
+      <c r="R45" s="84"/>
+      <c r="S45" s="84"/>
+      <c r="T45" s="84"/>
+      <c r="U45" s="84"/>
+      <c r="V45" s="84"/>
+      <c r="W45" s="84"/>
+      <c r="X45" s="84"/>
+      <c r="Y45" s="84"/>
+      <c r="Z45" s="89">
         <v>20.0</v>
       </c>
-      <c r="AA45" s="73"/>
-      <c r="AB45" s="59" t="s">
-        <v>101</v>
+      <c r="AA45" s="78"/>
+      <c r="AB45" s="64" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="48"/>
-      <c r="B46" s="72"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="77"/>
       <c r="C46" s="24"/>
-      <c r="D46" s="72"/>
+      <c r="D46" s="77"/>
       <c r="E46" s="23"/>
-      <c r="F46" s="72"/>
+      <c r="F46" s="77"/>
       <c r="G46" s="23"/>
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
@@ -6583,28 +6715,28 @@
       <c r="L46" s="23"/>
       <c r="M46" s="23"/>
       <c r="N46" s="24"/>
-      <c r="O46" s="85"/>
-      <c r="P46" s="85"/>
-      <c r="Q46" s="85"/>
-      <c r="R46" s="85"/>
-      <c r="S46" s="85"/>
-      <c r="T46" s="85"/>
-      <c r="U46" s="85"/>
-      <c r="V46" s="85"/>
-      <c r="W46" s="85"/>
-      <c r="X46" s="85"/>
-      <c r="Y46" s="85"/>
-      <c r="Z46" s="72"/>
+      <c r="O46" s="90"/>
+      <c r="P46" s="90"/>
+      <c r="Q46" s="90"/>
+      <c r="R46" s="90"/>
+      <c r="S46" s="90"/>
+      <c r="T46" s="90"/>
+      <c r="U46" s="90"/>
+      <c r="V46" s="90"/>
+      <c r="W46" s="90"/>
+      <c r="X46" s="90"/>
+      <c r="Y46" s="90"/>
+      <c r="Z46" s="77"/>
       <c r="AA46" s="24"/>
-      <c r="AB46" s="85"/>
+      <c r="AB46" s="90"/>
     </row>
     <row r="47">
-      <c r="A47" s="48"/>
-      <c r="B47" s="72"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="77"/>
       <c r="C47" s="24"/>
-      <c r="D47" s="72"/>
+      <c r="D47" s="77"/>
       <c r="E47" s="24"/>
-      <c r="F47" s="72"/>
+      <c r="F47" s="77"/>
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
@@ -6613,710 +6745,710 @@
       <c r="L47" s="23"/>
       <c r="M47" s="23"/>
       <c r="N47" s="24"/>
-      <c r="O47" s="85"/>
-      <c r="P47" s="85"/>
-      <c r="Q47" s="85"/>
-      <c r="R47" s="85"/>
-      <c r="S47" s="85"/>
-      <c r="T47" s="85"/>
-      <c r="U47" s="85"/>
-      <c r="V47" s="85"/>
-      <c r="W47" s="85"/>
-      <c r="X47" s="85"/>
-      <c r="Y47" s="85"/>
-      <c r="Z47" s="72"/>
+      <c r="O47" s="90"/>
+      <c r="P47" s="90"/>
+      <c r="Q47" s="90"/>
+      <c r="R47" s="90"/>
+      <c r="S47" s="90"/>
+      <c r="T47" s="90"/>
+      <c r="U47" s="90"/>
+      <c r="V47" s="90"/>
+      <c r="W47" s="90"/>
+      <c r="X47" s="90"/>
+      <c r="Y47" s="90"/>
+      <c r="Z47" s="77"/>
       <c r="AA47" s="24"/>
-      <c r="AB47" s="85"/>
+      <c r="AB47" s="90"/>
     </row>
     <row r="48">
-      <c r="A48" s="48"/>
-      <c r="B48" s="51" t="s">
-        <v>160</v>
+      <c r="A48" s="53"/>
+      <c r="B48" s="56" t="s">
+        <v>180</v>
       </c>
       <c r="C48" s="24"/>
-      <c r="D48" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="68"/>
-      <c r="O48" s="86"/>
-      <c r="P48" s="86"/>
-      <c r="Q48" s="86"/>
-      <c r="R48" s="86"/>
-      <c r="S48" s="86"/>
-      <c r="T48" s="86"/>
-      <c r="U48" s="86"/>
-      <c r="V48" s="86"/>
-      <c r="W48" s="86"/>
-      <c r="X48" s="86"/>
-      <c r="Y48" s="86"/>
-      <c r="Z48" s="72"/>
+      <c r="D48" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="75"/>
+      <c r="K48" s="75"/>
+      <c r="L48" s="75"/>
+      <c r="M48" s="75"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="91"/>
+      <c r="P48" s="91"/>
+      <c r="Q48" s="91"/>
+      <c r="R48" s="91"/>
+      <c r="S48" s="91"/>
+      <c r="T48" s="91"/>
+      <c r="U48" s="91"/>
+      <c r="V48" s="91"/>
+      <c r="W48" s="91"/>
+      <c r="X48" s="91"/>
+      <c r="Y48" s="91"/>
+      <c r="Z48" s="77"/>
       <c r="AA48" s="24"/>
-      <c r="AB48" s="74"/>
+      <c r="AB48" s="79"/>
     </row>
     <row r="49">
-      <c r="A49" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="B49" s="87" t="s">
-        <v>162</v>
+      <c r="A49" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="92" t="s">
+        <v>182</v>
       </c>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
       <c r="E49" s="24"/>
-      <c r="F49" s="78" t="s">
-        <v>163</v>
-      </c>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="77"/>
-      <c r="O49" s="79"/>
-      <c r="P49" s="80"/>
-      <c r="Q49" s="80"/>
-      <c r="R49" s="80"/>
-      <c r="S49" s="80"/>
-      <c r="T49" s="80"/>
-      <c r="U49" s="80"/>
-      <c r="V49" s="80"/>
-      <c r="W49" s="80"/>
-      <c r="X49" s="80"/>
-      <c r="Y49" s="80"/>
-      <c r="Z49" s="81">
+      <c r="F49" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="G49" s="75"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="75"/>
+      <c r="J49" s="75"/>
+      <c r="K49" s="75"/>
+      <c r="L49" s="75"/>
+      <c r="M49" s="75"/>
+      <c r="N49" s="82"/>
+      <c r="O49" s="84"/>
+      <c r="P49" s="85"/>
+      <c r="Q49" s="85"/>
+      <c r="R49" s="85"/>
+      <c r="S49" s="85"/>
+      <c r="T49" s="85"/>
+      <c r="U49" s="85"/>
+      <c r="V49" s="85"/>
+      <c r="W49" s="85"/>
+      <c r="X49" s="85"/>
+      <c r="Y49" s="85"/>
+      <c r="Z49" s="86">
         <v>10.0</v>
       </c>
-      <c r="AA49" s="73"/>
-      <c r="AB49" s="57" t="s">
-        <v>97</v>
+      <c r="AA49" s="78"/>
+      <c r="AB49" s="62" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" s="89" t="s">
-        <v>164</v>
+      <c r="A50" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="94" t="s">
+        <v>184</v>
       </c>
       <c r="C50" s="24"/>
-      <c r="D50" s="78" t="s">
-        <v>165</v>
-      </c>
-      <c r="E50" s="70"/>
-      <c r="F50" s="78" t="s">
-        <v>166</v>
-      </c>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="70"/>
-      <c r="N50" s="77"/>
-      <c r="O50" s="79"/>
-      <c r="P50" s="79"/>
-      <c r="Q50" s="80"/>
-      <c r="R50" s="80"/>
-      <c r="S50" s="80"/>
-      <c r="T50" s="80"/>
-      <c r="U50" s="80"/>
-      <c r="V50" s="80"/>
-      <c r="W50" s="80"/>
-      <c r="X50" s="80"/>
-      <c r="Y50" s="80"/>
-      <c r="Z50" s="81">
+      <c r="D50" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="E50" s="75"/>
+      <c r="F50" s="83" t="s">
+        <v>186</v>
+      </c>
+      <c r="G50" s="75"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="75"/>
+      <c r="K50" s="75"/>
+      <c r="L50" s="75"/>
+      <c r="M50" s="75"/>
+      <c r="N50" s="82"/>
+      <c r="O50" s="84"/>
+      <c r="P50" s="84"/>
+      <c r="Q50" s="85"/>
+      <c r="R50" s="85"/>
+      <c r="S50" s="85"/>
+      <c r="T50" s="85"/>
+      <c r="U50" s="85"/>
+      <c r="V50" s="85"/>
+      <c r="W50" s="85"/>
+      <c r="X50" s="85"/>
+      <c r="Y50" s="85"/>
+      <c r="Z50" s="86">
         <v>12.0</v>
       </c>
-      <c r="AA50" s="73"/>
-      <c r="AB50" s="57" t="s">
-        <v>97</v>
+      <c r="AA50" s="78"/>
+      <c r="AB50" s="62" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="B51" s="87" t="s">
-        <v>167</v>
+      <c r="A51" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="92" t="s">
+        <v>187</v>
       </c>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
       <c r="E51" s="24"/>
-      <c r="F51" s="78" t="s">
-        <v>168</v>
-      </c>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="70"/>
-      <c r="M51" s="70"/>
-      <c r="N51" s="77"/>
-      <c r="O51" s="79"/>
-      <c r="P51" s="79"/>
-      <c r="Q51" s="79"/>
-      <c r="R51" s="80"/>
-      <c r="S51" s="80"/>
-      <c r="T51" s="80"/>
-      <c r="U51" s="80"/>
-      <c r="V51" s="80"/>
-      <c r="W51" s="80"/>
-      <c r="X51" s="80"/>
-      <c r="Y51" s="80"/>
-      <c r="Z51" s="81">
+      <c r="F51" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="G51" s="75"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="75"/>
+      <c r="L51" s="75"/>
+      <c r="M51" s="75"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="84"/>
+      <c r="P51" s="84"/>
+      <c r="Q51" s="84"/>
+      <c r="R51" s="85"/>
+      <c r="S51" s="85"/>
+      <c r="T51" s="85"/>
+      <c r="U51" s="85"/>
+      <c r="V51" s="85"/>
+      <c r="W51" s="85"/>
+      <c r="X51" s="85"/>
+      <c r="Y51" s="85"/>
+      <c r="Z51" s="86">
         <v>13.0</v>
       </c>
-      <c r="AA51" s="73"/>
-      <c r="AB51" s="57" t="s">
-        <v>97</v>
+      <c r="AA51" s="78"/>
+      <c r="AB51" s="62" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="89" t="s">
-        <v>169</v>
+      <c r="A52" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="94" t="s">
+        <v>189</v>
       </c>
       <c r="C52" s="24"/>
-      <c r="D52" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="E52" s="70"/>
-      <c r="F52" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="70"/>
-      <c r="N52" s="77"/>
-      <c r="O52" s="79"/>
-      <c r="P52" s="79"/>
-      <c r="Q52" s="79"/>
-      <c r="R52" s="79"/>
-      <c r="S52" s="80"/>
-      <c r="T52" s="80"/>
-      <c r="U52" s="80"/>
-      <c r="V52" s="80"/>
-      <c r="W52" s="80"/>
-      <c r="X52" s="80"/>
-      <c r="Y52" s="80"/>
-      <c r="Z52" s="81">
+      <c r="D52" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="E52" s="75"/>
+      <c r="F52" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="G52" s="75"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="75"/>
+      <c r="L52" s="75"/>
+      <c r="M52" s="75"/>
+      <c r="N52" s="82"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="84"/>
+      <c r="Q52" s="84"/>
+      <c r="R52" s="84"/>
+      <c r="S52" s="85"/>
+      <c r="T52" s="85"/>
+      <c r="U52" s="85"/>
+      <c r="V52" s="85"/>
+      <c r="W52" s="85"/>
+      <c r="X52" s="85"/>
+      <c r="Y52" s="85"/>
+      <c r="Z52" s="86">
         <v>13.0</v>
       </c>
-      <c r="AA52" s="73"/>
-      <c r="AB52" s="57" t="s">
-        <v>97</v>
+      <c r="AA52" s="78"/>
+      <c r="AB52" s="62" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" s="87" t="s">
-        <v>172</v>
+      <c r="A53" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="92" t="s">
+        <v>192</v>
       </c>
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
       <c r="E53" s="24"/>
-      <c r="F53" s="78" t="s">
-        <v>173</v>
-      </c>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="70"/>
-      <c r="N53" s="77"/>
-      <c r="O53" s="79"/>
-      <c r="P53" s="79"/>
-      <c r="Q53" s="79"/>
-      <c r="R53" s="79"/>
-      <c r="S53" s="79"/>
-      <c r="T53" s="80"/>
-      <c r="U53" s="80"/>
-      <c r="V53" s="80"/>
-      <c r="W53" s="80"/>
-      <c r="X53" s="80"/>
-      <c r="Y53" s="80"/>
-      <c r="Z53" s="82">
+      <c r="F53" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="G53" s="75"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="75"/>
+      <c r="M53" s="75"/>
+      <c r="N53" s="82"/>
+      <c r="O53" s="84"/>
+      <c r="P53" s="84"/>
+      <c r="Q53" s="84"/>
+      <c r="R53" s="84"/>
+      <c r="S53" s="84"/>
+      <c r="T53" s="85"/>
+      <c r="U53" s="85"/>
+      <c r="V53" s="85"/>
+      <c r="W53" s="85"/>
+      <c r="X53" s="85"/>
+      <c r="Y53" s="85"/>
+      <c r="Z53" s="87">
         <v>14.0</v>
       </c>
-      <c r="AA53" s="73"/>
-      <c r="AB53" s="58" t="s">
-        <v>99</v>
+      <c r="AA53" s="78"/>
+      <c r="AB53" s="63" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="B54" s="89" t="s">
-        <v>174</v>
+      <c r="A54" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="94" t="s">
+        <v>194</v>
       </c>
       <c r="C54" s="24"/>
-      <c r="D54" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="E54" s="70"/>
-      <c r="F54" s="78" t="s">
-        <v>176</v>
-      </c>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="70"/>
-      <c r="J54" s="70"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="70"/>
-      <c r="M54" s="70"/>
-      <c r="N54" s="77"/>
-      <c r="O54" s="79"/>
-      <c r="P54" s="79"/>
-      <c r="Q54" s="79"/>
-      <c r="R54" s="79"/>
-      <c r="S54" s="79"/>
-      <c r="T54" s="79"/>
-      <c r="U54" s="80"/>
-      <c r="V54" s="80"/>
-      <c r="W54" s="80"/>
-      <c r="X54" s="80"/>
-      <c r="Y54" s="80"/>
-      <c r="Z54" s="82">
+      <c r="D54" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" s="75"/>
+      <c r="F54" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="G54" s="75"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="75"/>
+      <c r="N54" s="82"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="84"/>
+      <c r="Q54" s="84"/>
+      <c r="R54" s="84"/>
+      <c r="S54" s="84"/>
+      <c r="T54" s="84"/>
+      <c r="U54" s="85"/>
+      <c r="V54" s="85"/>
+      <c r="W54" s="85"/>
+      <c r="X54" s="85"/>
+      <c r="Y54" s="85"/>
+      <c r="Z54" s="87">
         <v>15.0</v>
       </c>
-      <c r="AA54" s="73"/>
-      <c r="AB54" s="58" t="s">
-        <v>99</v>
+      <c r="AA54" s="78"/>
+      <c r="AB54" s="63" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="B55" s="87" t="s">
-        <v>177</v>
+      <c r="A55" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55" s="92" t="s">
+        <v>197</v>
       </c>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
       <c r="E55" s="24"/>
-      <c r="F55" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="70"/>
-      <c r="L55" s="70"/>
-      <c r="M55" s="70"/>
-      <c r="N55" s="77"/>
-      <c r="O55" s="79"/>
-      <c r="P55" s="79"/>
-      <c r="Q55" s="79"/>
-      <c r="R55" s="79"/>
-      <c r="S55" s="79"/>
-      <c r="T55" s="79"/>
-      <c r="U55" s="79"/>
-      <c r="V55" s="80"/>
-      <c r="W55" s="80"/>
-      <c r="X55" s="80"/>
-      <c r="Y55" s="80"/>
-      <c r="Z55" s="82">
+      <c r="F55" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="G55" s="75"/>
+      <c r="H55" s="75"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="75"/>
+      <c r="K55" s="75"/>
+      <c r="L55" s="75"/>
+      <c r="M55" s="75"/>
+      <c r="N55" s="82"/>
+      <c r="O55" s="84"/>
+      <c r="P55" s="84"/>
+      <c r="Q55" s="84"/>
+      <c r="R55" s="84"/>
+      <c r="S55" s="84"/>
+      <c r="T55" s="84"/>
+      <c r="U55" s="84"/>
+      <c r="V55" s="85"/>
+      <c r="W55" s="85"/>
+      <c r="X55" s="85"/>
+      <c r="Y55" s="85"/>
+      <c r="Z55" s="87">
         <v>16.0</v>
       </c>
-      <c r="AA55" s="73"/>
-      <c r="AB55" s="58" t="s">
-        <v>99</v>
+      <c r="AA55" s="78"/>
+      <c r="AB55" s="63" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="B56" s="89" t="s">
-        <v>179</v>
+      <c r="A56" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="94" t="s">
+        <v>199</v>
       </c>
       <c r="C56" s="24"/>
-      <c r="D56" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="E56" s="70"/>
-      <c r="F56" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="70"/>
-      <c r="L56" s="70"/>
-      <c r="M56" s="70"/>
-      <c r="N56" s="77"/>
-      <c r="O56" s="79"/>
-      <c r="P56" s="79"/>
-      <c r="Q56" s="79"/>
-      <c r="R56" s="79"/>
-      <c r="S56" s="79"/>
-      <c r="T56" s="79"/>
-      <c r="U56" s="79"/>
-      <c r="V56" s="79"/>
-      <c r="W56" s="80"/>
-      <c r="X56" s="80"/>
-      <c r="Y56" s="80"/>
-      <c r="Z56" s="82">
+      <c r="D56" s="83" t="s">
+        <v>200</v>
+      </c>
+      <c r="E56" s="75"/>
+      <c r="F56" s="83" t="s">
+        <v>201</v>
+      </c>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="75"/>
+      <c r="K56" s="75"/>
+      <c r="L56" s="75"/>
+      <c r="M56" s="75"/>
+      <c r="N56" s="82"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="84"/>
+      <c r="Q56" s="84"/>
+      <c r="R56" s="84"/>
+      <c r="S56" s="84"/>
+      <c r="T56" s="84"/>
+      <c r="U56" s="84"/>
+      <c r="V56" s="84"/>
+      <c r="W56" s="85"/>
+      <c r="X56" s="85"/>
+      <c r="Y56" s="85"/>
+      <c r="Z56" s="87">
         <v>17.0</v>
       </c>
-      <c r="AA56" s="73"/>
-      <c r="AB56" s="58" t="s">
-        <v>99</v>
+      <c r="AA56" s="78"/>
+      <c r="AB56" s="63" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="B57" s="87" t="s">
-        <v>182</v>
+      <c r="A57" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="92" t="s">
+        <v>202</v>
       </c>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
       <c r="E57" s="24"/>
-      <c r="F57" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="70"/>
-      <c r="L57" s="70"/>
-      <c r="M57" s="70"/>
-      <c r="N57" s="77"/>
-      <c r="O57" s="79"/>
-      <c r="P57" s="79"/>
-      <c r="Q57" s="79"/>
-      <c r="R57" s="79"/>
-      <c r="S57" s="79"/>
-      <c r="T57" s="79"/>
-      <c r="U57" s="79"/>
-      <c r="V57" s="79"/>
-      <c r="W57" s="79"/>
-      <c r="X57" s="80"/>
-      <c r="Y57" s="80"/>
-      <c r="Z57" s="84">
+      <c r="F57" s="83" t="s">
+        <v>203</v>
+      </c>
+      <c r="G57" s="75"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="75"/>
+      <c r="K57" s="75"/>
+      <c r="L57" s="75"/>
+      <c r="M57" s="75"/>
+      <c r="N57" s="82"/>
+      <c r="O57" s="84"/>
+      <c r="P57" s="84"/>
+      <c r="Q57" s="84"/>
+      <c r="R57" s="84"/>
+      <c r="S57" s="84"/>
+      <c r="T57" s="84"/>
+      <c r="U57" s="84"/>
+      <c r="V57" s="84"/>
+      <c r="W57" s="84"/>
+      <c r="X57" s="85"/>
+      <c r="Y57" s="85"/>
+      <c r="Z57" s="89">
         <v>18.0</v>
       </c>
-      <c r="AA57" s="73"/>
-      <c r="AB57" s="59" t="s">
-        <v>101</v>
+      <c r="AA57" s="78"/>
+      <c r="AB57" s="64" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="B58" s="89" t="s">
-        <v>184</v>
+      <c r="A58" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="94" t="s">
+        <v>204</v>
       </c>
       <c r="C58" s="24"/>
-      <c r="D58" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="E58" s="70"/>
-      <c r="F58" s="78" t="s">
-        <v>186</v>
-      </c>
-      <c r="G58" s="70"/>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70"/>
-      <c r="K58" s="70"/>
-      <c r="L58" s="70"/>
-      <c r="M58" s="70"/>
-      <c r="N58" s="77"/>
-      <c r="O58" s="79"/>
-      <c r="P58" s="79"/>
-      <c r="Q58" s="79"/>
-      <c r="R58" s="79"/>
-      <c r="S58" s="79"/>
-      <c r="T58" s="79"/>
-      <c r="U58" s="79"/>
-      <c r="V58" s="79"/>
-      <c r="W58" s="79"/>
-      <c r="X58" s="79"/>
-      <c r="Y58" s="80"/>
-      <c r="Z58" s="84">
+      <c r="D58" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="E58" s="75"/>
+      <c r="F58" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="G58" s="75"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="75"/>
+      <c r="K58" s="75"/>
+      <c r="L58" s="75"/>
+      <c r="M58" s="75"/>
+      <c r="N58" s="82"/>
+      <c r="O58" s="84"/>
+      <c r="P58" s="84"/>
+      <c r="Q58" s="84"/>
+      <c r="R58" s="84"/>
+      <c r="S58" s="84"/>
+      <c r="T58" s="84"/>
+      <c r="U58" s="84"/>
+      <c r="V58" s="84"/>
+      <c r="W58" s="84"/>
+      <c r="X58" s="84"/>
+      <c r="Y58" s="85"/>
+      <c r="Z58" s="89">
         <v>19.0</v>
       </c>
-      <c r="AA58" s="73"/>
-      <c r="AB58" s="59" t="s">
-        <v>101</v>
+      <c r="AA58" s="78"/>
+      <c r="AB58" s="64" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="B59" s="89" t="s">
-        <v>187</v>
+      <c r="A59" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="94" t="s">
+        <v>207</v>
       </c>
       <c r="C59" s="24"/>
-      <c r="D59" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="E59" s="70"/>
-      <c r="F59" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="70"/>
-      <c r="K59" s="70"/>
-      <c r="L59" s="70"/>
-      <c r="M59" s="70"/>
-      <c r="N59" s="77"/>
-      <c r="O59" s="79"/>
-      <c r="P59" s="79"/>
-      <c r="Q59" s="79"/>
-      <c r="R59" s="79"/>
-      <c r="S59" s="79"/>
-      <c r="T59" s="79"/>
-      <c r="U59" s="79"/>
-      <c r="V59" s="79"/>
-      <c r="W59" s="79"/>
-      <c r="X59" s="79"/>
-      <c r="Y59" s="79"/>
-      <c r="Z59" s="84">
+      <c r="D59" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="E59" s="75"/>
+      <c r="F59" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="G59" s="75"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="75"/>
+      <c r="J59" s="75"/>
+      <c r="K59" s="75"/>
+      <c r="L59" s="75"/>
+      <c r="M59" s="75"/>
+      <c r="N59" s="82"/>
+      <c r="O59" s="84"/>
+      <c r="P59" s="84"/>
+      <c r="Q59" s="84"/>
+      <c r="R59" s="84"/>
+      <c r="S59" s="84"/>
+      <c r="T59" s="84"/>
+      <c r="U59" s="84"/>
+      <c r="V59" s="84"/>
+      <c r="W59" s="84"/>
+      <c r="X59" s="84"/>
+      <c r="Y59" s="84"/>
+      <c r="Z59" s="89">
         <v>20.0</v>
       </c>
-      <c r="AA59" s="73"/>
-      <c r="AB59" s="59" t="s">
-        <v>101</v>
+      <c r="AA59" s="78"/>
+      <c r="AB59" s="64" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="40"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="41"/>
-      <c r="T60" s="41"/>
-      <c r="U60" s="41"/>
-      <c r="V60" s="41"/>
-      <c r="W60" s="41"/>
-      <c r="X60" s="41"/>
-      <c r="Y60" s="41"/>
-      <c r="Z60" s="41"/>
-      <c r="AA60" s="41"/>
-      <c r="AB60" s="41"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="46"/>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="46"/>
+      <c r="R60" s="46"/>
+      <c r="S60" s="46"/>
+      <c r="T60" s="46"/>
+      <c r="U60" s="46"/>
+      <c r="V60" s="46"/>
+      <c r="W60" s="46"/>
+      <c r="X60" s="46"/>
+      <c r="Y60" s="46"/>
+      <c r="Z60" s="46"/>
+      <c r="AA60" s="46"/>
+      <c r="AB60" s="46"/>
     </row>
     <row r="61">
-      <c r="A61" s="40"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="41"/>
-      <c r="P61" s="41"/>
-      <c r="Q61" s="41"/>
-      <c r="R61" s="41"/>
-      <c r="S61" s="41"/>
-      <c r="T61" s="41"/>
-      <c r="U61" s="41"/>
-      <c r="V61" s="41"/>
-      <c r="W61" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA61" s="41"/>
-      <c r="AB61" s="41"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="46"/>
+      <c r="R61" s="46"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA61" s="46"/>
+      <c r="AB61" s="46"/>
     </row>
     <row r="62">
-      <c r="A62" s="40"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="90" t="s">
-        <v>190</v>
-      </c>
-      <c r="J62" s="41"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="41"/>
-      <c r="P62" s="41"/>
-      <c r="Q62" s="41"/>
-      <c r="R62" s="41"/>
-      <c r="S62" s="41"/>
-      <c r="T62" s="41"/>
-      <c r="U62" s="41"/>
-      <c r="V62" s="41"/>
-      <c r="AA62" s="41"/>
-      <c r="AB62" s="41"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="95" t="s">
+        <v>210</v>
+      </c>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="46"/>
+      <c r="P62" s="46"/>
+      <c r="Q62" s="46"/>
+      <c r="R62" s="46"/>
+      <c r="S62" s="46"/>
+      <c r="T62" s="46"/>
+      <c r="U62" s="46"/>
+      <c r="V62" s="46"/>
+      <c r="AA62" s="46"/>
+      <c r="AB62" s="46"/>
     </row>
     <row r="63">
-      <c r="A63" s="40"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="41"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="41"/>
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
-      <c r="Q63" s="41"/>
-      <c r="R63" s="41"/>
-      <c r="S63" s="41"/>
-      <c r="T63" s="41"/>
-      <c r="U63" s="41"/>
-      <c r="V63" s="41"/>
-      <c r="W63" s="41"/>
-      <c r="X63" s="41"/>
-      <c r="Y63" s="41"/>
-      <c r="Z63" s="41"/>
-      <c r="AA63" s="41"/>
-      <c r="AB63" s="41"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="46"/>
+      <c r="O63" s="46"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="46"/>
+      <c r="R63" s="46"/>
+      <c r="S63" s="46"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="46"/>
+      <c r="V63" s="46"/>
+      <c r="W63" s="46"/>
+      <c r="X63" s="46"/>
+      <c r="Y63" s="46"/>
+      <c r="Z63" s="46"/>
+      <c r="AA63" s="46"/>
+      <c r="AB63" s="46"/>
     </row>
     <row r="64">
-      <c r="A64" s="40"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="41"/>
-      <c r="O64" s="41"/>
-      <c r="P64" s="41"/>
-      <c r="Q64" s="41"/>
-      <c r="R64" s="41"/>
-      <c r="S64" s="41"/>
-      <c r="T64" s="41"/>
-      <c r="U64" s="41"/>
-      <c r="V64" s="41"/>
-      <c r="W64" s="41"/>
-      <c r="X64" s="41"/>
-      <c r="Y64" s="41"/>
-      <c r="Z64" s="41"/>
-      <c r="AA64" s="41"/>
-      <c r="AB64" s="41"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="46"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="46"/>
+      <c r="R64" s="46"/>
+      <c r="S64" s="46"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="46"/>
+      <c r="V64" s="46"/>
+      <c r="W64" s="46"/>
+      <c r="X64" s="46"/>
+      <c r="Y64" s="46"/>
+      <c r="Z64" s="46"/>
+      <c r="AA64" s="46"/>
+      <c r="AB64" s="46"/>
     </row>
     <row r="65">
-      <c r="A65" s="40"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="41"/>
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
-      <c r="Q65" s="41"/>
-      <c r="R65" s="41"/>
-      <c r="S65" s="41"/>
-      <c r="T65" s="41"/>
-      <c r="U65" s="41"/>
-      <c r="V65" s="41"/>
-      <c r="W65" s="41"/>
-      <c r="X65" s="41"/>
-      <c r="Y65" s="41"/>
-      <c r="Z65" s="41"/>
-      <c r="AA65" s="41"/>
-      <c r="AB65" s="41"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="46"/>
+      <c r="Q65" s="46"/>
+      <c r="R65" s="46"/>
+      <c r="S65" s="46"/>
+      <c r="T65" s="46"/>
+      <c r="U65" s="46"/>
+      <c r="V65" s="46"/>
+      <c r="W65" s="46"/>
+      <c r="X65" s="46"/>
+      <c r="Y65" s="46"/>
+      <c r="Z65" s="46"/>
+      <c r="AA65" s="46"/>
+      <c r="AB65" s="46"/>
     </row>
     <row r="66">
-      <c r="A66" s="40"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="41"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="41"/>
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
-      <c r="Q66" s="41"/>
-      <c r="R66" s="41"/>
-      <c r="S66" s="41"/>
-      <c r="T66" s="41"/>
-      <c r="U66" s="41"/>
-      <c r="V66" s="41"/>
-      <c r="W66" s="41"/>
-      <c r="X66" s="41"/>
-      <c r="Y66" s="41"/>
-      <c r="Z66" s="41"/>
-      <c r="AA66" s="41"/>
-      <c r="AB66" s="41"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="46"/>
+      <c r="O66" s="46"/>
+      <c r="P66" s="46"/>
+      <c r="Q66" s="46"/>
+      <c r="R66" s="46"/>
+      <c r="S66" s="46"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="46"/>
+      <c r="V66" s="46"/>
+      <c r="W66" s="46"/>
+      <c r="X66" s="46"/>
+      <c r="Y66" s="46"/>
+      <c r="Z66" s="46"/>
+      <c r="AA66" s="46"/>
+      <c r="AB66" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="158">
